--- a/张蕴东/A11-四探针法测量半导体电阻率和薄层电阻/A11-数据收集(1).xlsx
+++ b/张蕴东/A11-四探针法测量半导体电阻率和薄层电阻/A11-数据收集(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\材科基实验\A11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\72992\Documents\GitHub\Better-Fundamentals-of-Materials-Science\张蕴东\A11-四探针法测量半导体电阻率和薄层电阻\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E015DADA-28BD-4C1E-B0C2-AE29AF1A3750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE084BB-B9EE-4547-A2AC-4C3696FA6CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="4764" windowWidth="14400" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19095" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,6 +204,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -679,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,21 +771,9 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,21 +789,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,52 +804,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,20 +1132,20 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="7" width="20.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.86328125" style="1"/>
+    <col min="9" max="9" width="14.86328125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
         <v>48</v>
       </c>
       <c r="B1" s="52"/>
@@ -1181,7 +1155,7 @@
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1197,15 +1171,15 @@
       <c r="E2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="55">
         <v>24</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="56"/>
       <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>8</v>
@@ -1229,7 +1203,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1246,11 +1220,11 @@
         <f>AVERAGE(C4:D4)</f>
         <v>1.5150000000000001</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="36">
         <f>2*PI()*I$3*E4/B4</f>
         <v>1.6153106635630534</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="37">
         <f>F4/I$5</f>
         <v>1.6508029264824255</v>
       </c>
@@ -1258,7 +1232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
@@ -1275,11 +1249,11 @@
         <f>AVERAGE(C5:D5)</f>
         <v>1.52</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="36">
         <f>2*PI()*I$3*E5/B5</f>
         <v>1.6206417218586409</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="37">
         <f>F5/I$5</f>
         <v>1.656251120959265</v>
       </c>
@@ -1287,7 +1261,7 @@
         <v>0.97850000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1304,16 +1278,16 @@
         <f>AVERAGE(C6:D6)</f>
         <v>1.5249999999999999</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="36">
         <f>2*PI()*I$3*E6/B6</f>
         <v>1.6259727801542283</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="37">
         <f>F6/I$5</f>
         <v>1.6616993154361044</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -1330,16 +1304,16 @@
         <f>AVERAGE(C7:D7)</f>
         <v>1.55</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="36">
         <f>2*PI()*I$3*E7/B7</f>
         <v>1.6526280716321666</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="37">
         <f>F7/I$5</f>
         <v>1.688940287820303</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1356,36 +1330,36 @@
         <f>AVERAGE(C8:D8)</f>
         <v>1.57</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="36">
         <f>2*PI()*I$3*E8/B8</f>
         <v>1.6739523048145173</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="37">
         <f>F8/I$5</f>
         <v>1.710733065727662</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+    <row r="9" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50">
+      <c r="B9" s="40"/>
+      <c r="C9" s="53">
         <f>AVERAGE(F4:F8)</f>
         <v>1.6377011084045212</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="48" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="47">
+      <c r="F9" s="40"/>
+      <c r="G9" s="38">
         <f>(MAX(F4:F8)-MIN(F4:F8))/(0.5*(MAX(F4:F8)+MIN(F4:F8)))*100%</f>
         <v>3.5656401944894583E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
         <v>22</v>
       </c>
@@ -1396,7 +1370,7 @@
       <c r="F11" s="52"/>
       <c r="G11" s="52"/>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1412,12 +1386,12 @@
       <c r="E12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="40">
         <v>7.5</v>
       </c>
-      <c r="G12" s="57"/>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1414,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1465,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1481,12 +1455,12 @@
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="48">
         <v>1.59</v>
       </c>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1483,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
@@ -1526,16 +1500,16 @@
         <f>AVERAGE(C17:D17)</f>
         <v>18.024999999999999</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="36">
         <f>E17/B17*D$12*G$14*D$14*F$14</f>
         <v>1.6064534737417941</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="37">
         <f>F17/B$14</f>
         <v>1.6417511228837958</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16" t="s">
         <v>16</v>
       </c>
@@ -1552,49 +1526,49 @@
         <f>AVERAGE(C18:D18)</f>
         <v>18.175000000000001</v>
       </c>
-      <c r="F18" s="45">
+      <c r="F18" s="36">
         <f>E18/B18*D$12*G$14*D$14*F$14</f>
         <v>1.64501925</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="37">
         <f>F18/B$14</f>
         <v>1.6811642820643842</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="29">
         <v>0.89</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <v>18.43</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="30">
         <v>18.25</v>
       </c>
       <c r="E19" s="14">
         <f>AVERAGE(C19:D19)</f>
         <v>18.34</v>
       </c>
-      <c r="F19" s="45">
+      <c r="F19" s="36">
         <f>E19/B19*D$12*G$14*D$14*F$14</f>
         <v>1.6786045617977527</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="37">
         <f>F19/B$14</f>
         <v>1.7154875439936155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="29">
         <v>0.88</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="30">
         <v>17.32</v>
       </c>
       <c r="D20" s="18">
@@ -1604,57 +1578,57 @@
         <f>AVERAGE(C20:D20)</f>
         <v>17.28</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="36">
         <f>E20/B20*D$12*G$14*D$14*F$14</f>
         <v>1.5995585454545453</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="37">
         <f>F20/B$14</f>
         <v>1.6347046964277416</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="31">
         <v>0.87</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="32">
         <v>18.02</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="33">
         <v>17.84</v>
       </c>
       <c r="E21" s="14">
         <f>AVERAGE(C21:D21)</f>
         <v>17.93</v>
       </c>
-      <c r="F21" s="45">
+      <c r="F21" s="36">
         <f>E21/B21*D$12*G$14*D$14*F$14</f>
         <v>1.6788044482758622</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="37">
         <f>F21/B$14</f>
         <v>1.7156918224587248</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="51">
+      <c r="B22" s="40"/>
+      <c r="C22" s="41">
         <f>AVERAGE(F17:F21)</f>
         <v>1.6416880558539908</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="52" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1639,7 @@
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -1681,12 +1655,12 @@
       <c r="E25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="40">
         <v>7.5</v>
       </c>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="49"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>38</v>
       </c>
@@ -1709,7 +1683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1734,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -1750,12 +1724,12 @@
       <c r="E28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="48">
         <v>76.38</v>
       </c>
-      <c r="G28" s="54"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="45"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
@@ -1771,16 +1745,16 @@
       <c r="E29" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="54"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="45"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="34">
         <v>4.5999999999999996</v>
       </c>
       <c r="C30" s="14">
@@ -1793,17 +1767,17 @@
         <f>AVERAGE(C30:D30)</f>
         <v>74.835000000000008</v>
       </c>
-      <c r="F30" s="63">
+      <c r="F30" s="46">
         <f>E30*G$27*D$27*F$27/B30</f>
         <v>73.622998369565238</v>
       </c>
-      <c r="G30" s="64"/>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="35">
         <v>4.7</v>
       </c>
       <c r="C31" s="18">
@@ -1816,28 +1790,28 @@
         <f>AVERAGE(C31:D31)</f>
         <v>76.074999999999989</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="50">
         <f>E31*G$27*D$27*F$27/B31</f>
         <v>73.250513297872331</v>
       </c>
-      <c r="G31" s="59"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="G31" s="51"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="51">
+      <c r="B32" s="40"/>
+      <c r="C32" s="41">
         <f>AVERAGE(F30:G31)</f>
         <v>73.436755833718792</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="52" t="s">
         <v>24</v>
       </c>
@@ -1848,7 +1822,7 @@
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -1864,12 +1838,12 @@
       <c r="E35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="40">
         <v>6</v>
       </c>
-      <c r="G35" s="57"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="49"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -1892,7 +1866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -1917,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1933,12 +1907,12 @@
       <c r="E38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="48">
         <v>7.24</v>
       </c>
-      <c r="G38" s="54"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
@@ -1954,16 +1928,16 @@
       <c r="E39" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="54"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="45"/>
+    </row>
+    <row r="40" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="40">
+      <c r="B40" s="34">
         <v>4.5999999999999996</v>
       </c>
       <c r="C40" s="14">
@@ -1976,17 +1950,17 @@
         <f>AVERAGE(C40:D40)</f>
         <v>7.3449999999999998</v>
       </c>
-      <c r="F40" s="63">
+      <c r="F40" s="46">
         <f>E40*G$37*D$37*F$37/B40</f>
         <v>7.2260429347826092</v>
       </c>
-      <c r="G40" s="64"/>
-    </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="47"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="35">
         <v>4.75</v>
       </c>
       <c r="C41" s="18">
@@ -1999,28 +1973,28 @@
         <f>AVERAGE(C41:D41)</f>
         <v>7.57</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="50">
         <f>E41*G$37*D$37*F$37/B41</f>
         <v>7.2122178947368418</v>
       </c>
-      <c r="G41" s="59"/>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48" t="s">
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="51">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41">
         <f>AVERAGE(F40:G41)</f>
         <v>7.2191304147597251</v>
       </c>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
-    </row>
-    <row r="43" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
+    </row>
+    <row r="43" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="52" t="s">
         <v>25</v>
       </c>
@@ -2031,7 +2005,7 @@
       <c r="F44" s="52"/>
       <c r="G44" s="52"/>
     </row>
-    <row r="45" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
@@ -2047,12 +2021,12 @@
       <c r="E45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="40">
         <v>60</v>
       </c>
-      <c r="G45" s="57"/>
-    </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="49"/>
+    </row>
+    <row r="46" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
@@ -2075,7 +2049,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
@@ -2100,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2116,12 +2090,12 @@
       <c r="E48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="62">
+      <c r="F48" s="48">
         <v>1.38</v>
       </c>
-      <c r="G48" s="54"/>
-    </row>
-    <row r="49" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
@@ -2137,35 +2111,35 @@
       <c r="E49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="G49" s="54"/>
-    </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="34">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C50" s="43">
+      <c r="C50" s="28">
         <v>1.4</v>
       </c>
-      <c r="D50" s="44">
+      <c r="D50" s="28">
         <v>1.4</v>
       </c>
       <c r="E50" s="14">
         <f>AVERAGE(C50:D50)</f>
         <v>1.4</v>
       </c>
-      <c r="F50" s="63">
+      <c r="F50" s="46">
         <f>E50*G$47*D$47*F$47/B50</f>
         <v>1.3773260869565218</v>
       </c>
-      <c r="G50" s="64"/>
-    </row>
-    <row r="51" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="47"/>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="16" t="s">
         <v>16</v>
       </c>
@@ -2182,28 +2156,50 @@
         <f>AVERAGE(C51:D51)</f>
         <v>1.4849999999999999</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="50">
         <f>E51*G$47*D$47*F$47/B51</f>
         <v>1.3788197578990562</v>
       </c>
-      <c r="G51" s="59"/>
-    </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="1:7" s="2" customFormat="1" ht="22.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="49"/>
-      <c r="C52" s="51">
+      <c r="B52" s="40"/>
+      <c r="C52" s="41">
         <f>AVERAGE(F50:G51)</f>
         <v>1.378072922427789</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F51:G51"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="C52:G52"/>
     <mergeCell ref="F29:G29"/>
@@ -2216,28 +2212,6 @@
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
